--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H2">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I2">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J2">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N2">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P2">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q2">
-        <v>1172.185381789013</v>
+        <v>2354.266426296615</v>
       </c>
       <c r="R2">
-        <v>10549.66843610112</v>
+        <v>21188.39783666954</v>
       </c>
       <c r="S2">
-        <v>0.4531346620072664</v>
+        <v>0.6322708754688151</v>
       </c>
       <c r="T2">
-        <v>0.4531346620072665</v>
+        <v>0.6322708754688151</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H3">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I3">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J3">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>25.86682</v>
       </c>
       <c r="O3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P3">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q3">
-        <v>319.505489105351</v>
+        <v>352.0937792896222</v>
       </c>
       <c r="R3">
-        <v>2875.549401948159</v>
+        <v>3168.8440136066</v>
       </c>
       <c r="S3">
-        <v>0.1235120434570297</v>
+        <v>0.09455966393266882</v>
       </c>
       <c r="T3">
-        <v>0.1235120434570297</v>
+        <v>0.09455966393266881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H4">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I4">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J4">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N4">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P4">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q4">
-        <v>159.2518485556338</v>
+        <v>113.9607557372267</v>
       </c>
       <c r="R4">
-        <v>1433.266637000704</v>
+        <v>1025.64680163504</v>
       </c>
       <c r="S4">
-        <v>0.06156238909851747</v>
+        <v>0.0306057402825087</v>
       </c>
       <c r="T4">
-        <v>0.06156238909851748</v>
+        <v>0.03060574028250869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.05582933333333</v>
+        <v>40.83537666666667</v>
       </c>
       <c r="H5">
-        <v>111.167488</v>
+        <v>122.50613</v>
       </c>
       <c r="I5">
-        <v>0.9062076988734117</v>
+        <v>0.9274830900091532</v>
       </c>
       <c r="J5">
-        <v>0.9062076988734118</v>
+        <v>0.9274830900091531</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N5">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P5">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q5">
-        <v>693.2686299502363</v>
+        <v>633.1708639125823</v>
       </c>
       <c r="R5">
-        <v>6239.417669552127</v>
+        <v>5698.537775213241</v>
       </c>
       <c r="S5">
-        <v>0.267998604310598</v>
+        <v>0.1700468103251606</v>
       </c>
       <c r="T5">
-        <v>0.2679986043105981</v>
+        <v>0.1700468103251606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.037205</v>
       </c>
       <c r="I6">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J6">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N6">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P6">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q6">
-        <v>53.11389303025833</v>
+        <v>96.80268745632111</v>
       </c>
       <c r="R6">
-        <v>478.025037272325</v>
+        <v>871.22418710689</v>
       </c>
       <c r="S6">
-        <v>0.02053237170508263</v>
+        <v>0.02599770325995844</v>
       </c>
       <c r="T6">
-        <v>0.02053237170508263</v>
+        <v>0.02599770325995844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.037205</v>
       </c>
       <c r="I7">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J7">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>25.86682</v>
       </c>
       <c r="O7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P7">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q7">
         <v>14.47738611534444</v>
@@ -883,10 +883,10 @@
         <v>130.2964750381</v>
       </c>
       <c r="S7">
-        <v>0.005596559696140364</v>
+        <v>0.00388810267665756</v>
       </c>
       <c r="T7">
-        <v>0.005596559696140364</v>
+        <v>0.003888102676657559</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.037205</v>
       </c>
       <c r="I8">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J8">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N8">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P8">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q8">
-        <v>7.215996531321111</v>
+        <v>4.685836444293334</v>
       </c>
       <c r="R8">
-        <v>64.94396878189001</v>
+        <v>42.17252799864001</v>
       </c>
       <c r="S8">
-        <v>0.002789505994585375</v>
+        <v>0.001258446315949693</v>
       </c>
       <c r="T8">
-        <v>0.002789505994585375</v>
+        <v>0.001258446315949693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.037205</v>
       </c>
       <c r="I9">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934058</v>
       </c>
       <c r="J9">
-        <v>0.04106195106076018</v>
+        <v>0.03813623414934057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N9">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P9">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q9">
-        <v>31.41328703162278</v>
+        <v>26.03470896970444</v>
       </c>
       <c r="R9">
-        <v>282.719583284605</v>
+        <v>234.31238072734</v>
       </c>
       <c r="S9">
-        <v>0.01214351366495181</v>
+        <v>0.006991981896774886</v>
       </c>
       <c r="T9">
-        <v>0.01214351366495181</v>
+        <v>0.006991981896774885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H10">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I10">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J10">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N10">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P10">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q10">
-        <v>65.37546959167666</v>
+        <v>86.69910435323399</v>
       </c>
       <c r="R10">
-        <v>588.3792263250899</v>
+        <v>780.291939179106</v>
       </c>
       <c r="S10">
-        <v>0.02527236030855302</v>
+        <v>0.02328424599675065</v>
       </c>
       <c r="T10">
-        <v>0.02527236030855303</v>
+        <v>0.02328424599675064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H11">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I11">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J11">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>25.86682</v>
       </c>
       <c r="O11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P11">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q11">
-        <v>17.81955457890222</v>
+        <v>12.96633846186</v>
       </c>
       <c r="R11">
-        <v>160.37599121012</v>
+        <v>116.69704615674</v>
       </c>
       <c r="S11">
-        <v>0.006888550195795128</v>
+        <v>0.003482289888405472</v>
       </c>
       <c r="T11">
-        <v>0.006888550195795129</v>
+        <v>0.003482289888405471</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H12">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I12">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J12">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N12">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P12">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q12">
-        <v>8.881841169847554</v>
+        <v>4.196761820784</v>
       </c>
       <c r="R12">
-        <v>79.936570528628</v>
+        <v>37.770856387056</v>
       </c>
       <c r="S12">
-        <v>0.003433475761622758</v>
+        <v>0.001127098547947811</v>
       </c>
       <c r="T12">
-        <v>0.003433475761622759</v>
+        <v>0.001127098547947811</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.066688666666666</v>
+        <v>1.503819</v>
       </c>
       <c r="H13">
-        <v>6.200066</v>
+        <v>4.511457</v>
       </c>
       <c r="I13">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746153</v>
       </c>
       <c r="J13">
-        <v>0.05054128364152007</v>
+        <v>0.03415584247746152</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N13">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P13">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q13">
-        <v>38.66518294828288</v>
+        <v>23.317389311004</v>
       </c>
       <c r="R13">
-        <v>347.986646534546</v>
+        <v>209.856503799036</v>
       </c>
       <c r="S13">
-        <v>0.01494689737554916</v>
+        <v>0.006262208044357602</v>
       </c>
       <c r="T13">
-        <v>0.01494689737554916</v>
+        <v>0.006262208044357601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H14">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I14">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J14">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.632955</v>
+        <v>57.65261933333333</v>
       </c>
       <c r="N14">
-        <v>94.898865</v>
+        <v>172.957858</v>
       </c>
       <c r="O14">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="P14">
-        <v>0.5000340016649593</v>
+        <v>0.6817060950001529</v>
       </c>
       <c r="Q14">
-        <v>2.831571245233333</v>
+        <v>0.5707032787806666</v>
       </c>
       <c r="R14">
-        <v>25.4841412071</v>
+        <v>5.136329509026</v>
       </c>
       <c r="S14">
-        <v>0.001094607644057149</v>
+        <v>0.0001532702746286851</v>
       </c>
       <c r="T14">
-        <v>0.001094607644057149</v>
+        <v>0.0001532702746286851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H15">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I15">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J15">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>25.86682</v>
       </c>
       <c r="O15">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="P15">
-        <v>0.1362955132808722</v>
+        <v>0.1019529789289588</v>
       </c>
       <c r="Q15">
-        <v>0.7718084269777777</v>
+        <v>0.08535188372666666</v>
       </c>
       <c r="R15">
-        <v>6.9462758428</v>
+        <v>0.76816695354</v>
       </c>
       <c r="S15">
-        <v>0.0002983599319069868</v>
+        <v>2.292243122697995E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002983599319069868</v>
+        <v>2.292243122697995E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H16">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I16">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J16">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.297619333333333</v>
+        <v>2.790736</v>
       </c>
       <c r="N16">
-        <v>12.892858</v>
+        <v>8.372208000000001</v>
       </c>
       <c r="O16">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="P16">
-        <v>0.06793408307505136</v>
+        <v>0.0329987043561157</v>
       </c>
       <c r="Q16">
-        <v>0.3846942319244445</v>
+        <v>0.027625495664</v>
       </c>
       <c r="R16">
-        <v>3.46224808732</v>
+        <v>0.248629460976</v>
       </c>
       <c r="S16">
-        <v>0.0001487122203257475</v>
+        <v>7.419209709503196E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001487122203257475</v>
+        <v>7.419209709503193E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08951333333333333</v>
+        <v>0.009899</v>
       </c>
       <c r="H17">
-        <v>0.26854</v>
+        <v>0.029697</v>
       </c>
       <c r="I17">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="J17">
-        <v>0.002189066424308032</v>
+        <v>0.0002248333640447365</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.70876033333333</v>
+        <v>15.50544933333333</v>
       </c>
       <c r="N17">
-        <v>56.126281</v>
+        <v>46.516348</v>
       </c>
       <c r="O17">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="P17">
-        <v>0.2957364019791172</v>
+        <v>0.1833422217147727</v>
       </c>
       <c r="Q17">
-        <v>1.674683499971111</v>
+        <v>0.1534884429506667</v>
       </c>
       <c r="R17">
-        <v>15.07215149974</v>
+        <v>1.381395986556</v>
       </c>
       <c r="S17">
-        <v>0.0006473866280181488</v>
+        <v>4.122144847956829E-05</v>
       </c>
       <c r="T17">
-        <v>0.0006473866280181488</v>
+        <v>4.122144847956829E-05</v>
       </c>
     </row>
   </sheetData>
